--- a/Output/Cocconi_1992 Cocconi 1992 OS DTIC_non_IFN parameters.xlsx
+++ b/Output/Cocconi_1992 Cocconi 1992 OS DTIC_non_IFN parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.82367267232602</v>
+        <v>-2.6879308622404</v>
       </c>
       <c r="C2" t="n">
-        <v>0.324682196980101</v>
+        <v>0.254893879407089</v>
       </c>
       <c r="D2" t="n">
         <v>275.364247350313</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175621856814685</v>
+        <v>0.130167622053188</v>
       </c>
       <c r="C3" t="n">
-        <v>0.13578283802204</v>
+        <v>0.11158061989941</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.01754446692552</v>
+        <v>1.91397156346093</v>
       </c>
       <c r="C2" t="n">
-        <v>0.317384281227654</v>
+        <v>0.251259573281716</v>
       </c>
       <c r="D2" t="n">
         <v>277.570140461203</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.984930211873869</v>
+        <v>-0.965044938060798</v>
       </c>
       <c r="C3" t="n">
-        <v>0.101801443691546</v>
+        <v>0.0796827302863566</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.1068711084345</v>
+        <v>-2.0339517655342</v>
       </c>
       <c r="C2" t="n">
-        <v>0.179161935426299</v>
+        <v>0.179930231478184</v>
       </c>
       <c r="D2" t="n">
         <v>279.205274702534</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.70033738522035</v>
+        <v>1.64617655510194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.208460945649327</v>
+        <v>0.157352972748654</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.67178985962201</v>
+        <v>-2.58753790062641</v>
       </c>
       <c r="C2" t="n">
-        <v>0.230673825428547</v>
+        <v>0.210820747593303</v>
       </c>
       <c r="D2" t="n">
         <v>275.772042935015</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0177692748011179</v>
+        <v>0.0146205057425297</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0167409973495209</v>
+        <v>0.0191134696191717</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.105418529035825</v>
+        <v>0.0649708897591956</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0377651881515243</v>
+        <v>-0.0206858569923194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0377651881515243</v>
+        <v>-0.0206858569923194</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0184369791013194</v>
+        <v>0.0124502347371367</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.100732781970394</v>
+        <v>0.0631313731657098</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0284881700528722</v>
+        <v>-0.0158753027847061</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0284881700528722</v>
+        <v>-0.0158753027847061</v>
       </c>
       <c r="B3" t="n">
-        <v>0.010363533937683</v>
+        <v>0.00634933750588825</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0320989991056973</v>
+        <v>0.0323748881997928</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.016561795590602</v>
+        <v>-0.00937185231836174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.016561795590602</v>
+        <v>-0.00937185231836174</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0434559658610115</v>
+        <v>0.0247599580328386</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0532104137378396</v>
+        <v>0.0444453876157992</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00252369250313782</v>
+        <v>-0.00225609370786197</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00252369250313782</v>
+        <v>-0.00225609370786197</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000280260992256664</v>
+        <v>0.000365324720882999</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Cocconi_1992 Cocconi 1992 OS DTIC_non_IFN parameters.xlsx
+++ b/Output/Cocconi_1992 Cocconi 1992 OS DTIC_non_IFN parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.6879308622404</v>
+        <v>-2.82367267232602</v>
       </c>
       <c r="C2" t="n">
-        <v>0.254893879407089</v>
+        <v>0.324682196980101</v>
       </c>
       <c r="D2" t="n">
         <v>275.364247350313</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.130167622053188</v>
+        <v>0.175621856814685</v>
       </c>
       <c r="C3" t="n">
-        <v>0.11158061989941</v>
+        <v>0.13578283802204</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.91397156346093</v>
+        <v>2.01754446692552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.251259573281716</v>
+        <v>0.317384281227654</v>
       </c>
       <c r="D2" t="n">
         <v>277.570140461203</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.965044938060798</v>
+        <v>-0.984930211873869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0796827302863566</v>
+        <v>0.101801443691546</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.0339517655342</v>
+        <v>-2.1068711084345</v>
       </c>
       <c r="C2" t="n">
-        <v>0.179930231478184</v>
+        <v>0.179161935426299</v>
       </c>
       <c r="D2" t="n">
         <v>279.205274702534</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.64617655510194</v>
+        <v>0.523639577340592</v>
       </c>
       <c r="C3" t="n">
-        <v>0.157352972748654</v>
+        <v>0.11890355424349</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.58753790062641</v>
+        <v>-2.67178985962201</v>
       </c>
       <c r="C2" t="n">
-        <v>0.210820747593303</v>
+        <v>0.230673825428547</v>
       </c>
       <c r="D2" t="n">
         <v>275.772042935015</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0146205057425297</v>
+        <v>0.0177692748011179</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0191134696191717</v>
+        <v>0.0167409973495209</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0649708897591956</v>
+        <v>0.105418529035825</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0206858569923194</v>
+        <v>-0.0377651881515243</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0206858569923194</v>
+        <v>-0.0377651881515243</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0124502347371367</v>
+        <v>0.0184369791013194</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0631313731657098</v>
+        <v>0.100732781970394</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0158753027847061</v>
+        <v>-0.0284881700528722</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0158753027847061</v>
+        <v>-0.0284881700528722</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00634933750588825</v>
+        <v>0.010363533937683</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0323748881997928</v>
+        <v>0.0320989991056973</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00937185231836174</v>
+        <v>-0.00954686235042087</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00937185231836174</v>
+        <v>-0.00954686235042087</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0247599580328386</v>
+        <v>0.0141380552117345</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0444453876157992</v>
+        <v>0.0532104137378396</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00225609370786197</v>
+        <v>-0.00252369250313782</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00225609370786197</v>
+        <v>-0.00252369250313782</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000365324720882999</v>
+        <v>0.000280260992256664</v>
       </c>
     </row>
   </sheetData>
